--- a/pt_scripts/src/excel/scenarios.xlsx
+++ b/pt_scripts/src/excel/scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\CucumberTC\ProjectTC\pt_scripts\src\excel\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="558">
   <si>
     <t>Project ID</t>
   </si>
@@ -864,12 +864,856 @@
   </si>
   <si>
     <t>PT PDF</t>
+  </si>
+  <si>
+    <t>2739</t>
+  </si>
+  <si>
+    <t>SAIP16593.00</t>
+  </si>
+  <si>
+    <t>Delta Houses - Building</t>
+  </si>
+  <si>
+    <t>DB: 220.0</t>
+  </si>
+  <si>
+    <t>Cunningham Quill_1428_Saint Elizabeth_020314.pdf</t>
+  </si>
+  <si>
+    <t>Click here to open</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>SAP14609.00</t>
+  </si>
+  <si>
+    <t>BAM-Task1and2HVAC Fee_2-27-14rev.pdf</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>SAIP14419.00</t>
+  </si>
+  <si>
+    <t>OPX_SettyContract_RossCenter_APPROVED_062714.pdf</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>SAIPTEMP0011.00</t>
+  </si>
+  <si>
+    <t>Studios_Schools_1535 (c) KIPP DC New Expansion_05 14 2014 revised.pdf</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>SAIP14414.00</t>
+  </si>
+  <si>
+    <t>KAIG.pdf</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>SAIP14424.00</t>
+  </si>
+  <si>
+    <t>12th floor signed proposal.pdf</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>SAP14756.00</t>
+  </si>
+  <si>
+    <t>Arel_PG Public Safety Pier at Heritage Cove 5-19-14 rev.pdf</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>SAIP14426.00</t>
+  </si>
+  <si>
+    <t>HCA_Schools_1449_Lafayette ES_032114 (revised).pdf</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>SAIP14457.00</t>
+  </si>
+  <si>
+    <t>Page_Hard Rock_111914_Tenant.pdf</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>SAP14765.00</t>
+  </si>
+  <si>
+    <t>Transwestern Tenant Fitout Fee Proposal 8-19-2014.pdf</t>
+  </si>
+  <si>
+    <t>14081</t>
+  </si>
+  <si>
+    <t>SAGQ188902.02</t>
+  </si>
+  <si>
+    <t>CRFPSAGQ188902029202018110924.pdf</t>
+  </si>
+  <si>
+    <t>14085</t>
+  </si>
+  <si>
+    <t>SAPX186046.00</t>
+  </si>
+  <si>
+    <t>CRFPSAPX186046009212018122732.pdf</t>
+  </si>
+  <si>
+    <t>14098</t>
+  </si>
+  <si>
+    <t>SAP15018.02.01</t>
+  </si>
+  <si>
+    <t>CRFPSAP15018020110112018125312.pdf</t>
+  </si>
+  <si>
+    <t>14108</t>
+  </si>
+  <si>
+    <t>SIPX172015.05</t>
+  </si>
+  <si>
+    <t>CRFPSIPX172015051030201811200.pdf</t>
+  </si>
+  <si>
+    <t>14106</t>
+  </si>
+  <si>
+    <t>SIPX172015.03</t>
+  </si>
+  <si>
+    <t>CRFPSIPX172015031030201811905.pdf</t>
+  </si>
+  <si>
+    <t>14149</t>
+  </si>
+  <si>
+    <t>SIPX182084.00</t>
+  </si>
+  <si>
+    <t>CRFPSIPX182084001113201842754.pdf</t>
+  </si>
+  <si>
+    <t>14155</t>
+  </si>
+  <si>
+    <t>SAPQ188907.10</t>
+  </si>
+  <si>
+    <t>CRFPSAPQ1889071011152018110612.pdf</t>
+  </si>
+  <si>
+    <t>14157</t>
+  </si>
+  <si>
+    <t>SAPQ188907.12</t>
+  </si>
+  <si>
+    <t>CRFPSAPQ1889071211192018110638.pdf</t>
+  </si>
+  <si>
+    <t>14166</t>
+  </si>
+  <si>
+    <t>SAPQ18639.11.01</t>
+  </si>
+  <si>
+    <t>CRFPSAPQ1863911011242018112042.pdf</t>
+  </si>
+  <si>
+    <t>14172</t>
+  </si>
+  <si>
+    <t>SIPQ181168.04.01</t>
+  </si>
+  <si>
+    <t>CRFPSIPQ18116804011220201854148.pdf</t>
+  </si>
+  <si>
+    <t>DB: 30.0</t>
+  </si>
+  <si>
+    <t>PT: 260.0</t>
+  </si>
+  <si>
+    <t>PT: 193.0</t>
+  </si>
+  <si>
+    <t>PT: 453.0</t>
+  </si>
+  <si>
+    <t>DB: 31.0</t>
+  </si>
+  <si>
+    <t>DB: 47.0</t>
+  </si>
+  <si>
+    <t>DB: 20.0</t>
+  </si>
+  <si>
+    <t>DB: 7.0</t>
+  </si>
+  <si>
+    <t>DB: 23.0</t>
+  </si>
+  <si>
+    <t>2458</t>
+  </si>
+  <si>
+    <t>SAIP16147.00</t>
+  </si>
+  <si>
+    <t>PGCPS Bladensburg HS Secondary School Renovation (SSR)</t>
+  </si>
+  <si>
+    <t>PT: 709.0</t>
+  </si>
+  <si>
+    <t>PT: 633.0</t>
+  </si>
+  <si>
+    <t>PT: 1342.0</t>
+  </si>
+  <si>
+    <t>DB: 13.0</t>
+  </si>
+  <si>
+    <t>DB: 29.0</t>
+  </si>
+  <si>
+    <t>DB: 6.0</t>
+  </si>
+  <si>
+    <t>DB: 9.0</t>
+  </si>
+  <si>
+    <t>DB: 75.0</t>
+  </si>
+  <si>
+    <t>DB: 825.0</t>
+  </si>
+  <si>
+    <t>PT: 114000.0</t>
+  </si>
+  <si>
+    <t>PT: 319633.0</t>
+  </si>
+  <si>
+    <t>PT: 433633.0</t>
+  </si>
+  <si>
+    <t>2427</t>
+  </si>
+  <si>
+    <t>SAIP15531.00</t>
+  </si>
+  <si>
+    <t>DC DGS Emergency Family Shelter 35 Units Design/Build</t>
+  </si>
+  <si>
+    <t>DB: 870.0</t>
+  </si>
+  <si>
+    <t>DB: 1375.0</t>
+  </si>
+  <si>
+    <t>PT: 117765.0</t>
+  </si>
+  <si>
+    <t>PT: 280203.0</t>
+  </si>
+  <si>
+    <t>DB: 2245.0</t>
+  </si>
+  <si>
+    <t>PT: 397968.0</t>
+  </si>
+  <si>
+    <t>DB: 390.0</t>
+  </si>
+  <si>
+    <t>DB: 1215.0</t>
+  </si>
+  <si>
+    <t>DB: 975.0</t>
+  </si>
+  <si>
+    <t>DB: 240.0</t>
+  </si>
+  <si>
+    <t>DB: 350.0</t>
+  </si>
+  <si>
+    <t>DB: 1035.0</t>
+  </si>
+  <si>
+    <t>Agency - Central Plant Energy Master Plan - HQ Compound</t>
+  </si>
+  <si>
+    <t>DB: 382.5</t>
+  </si>
+  <si>
+    <t>PT: 383.0</t>
+  </si>
+  <si>
+    <t>PT: 4.0</t>
+  </si>
+  <si>
+    <t>DB: 386.5</t>
+  </si>
+  <si>
+    <t>PT: 387.0</t>
+  </si>
+  <si>
+    <t>Lovettsville, Community Center</t>
+  </si>
+  <si>
+    <t>DB: 2484.5</t>
+  </si>
+  <si>
+    <t>DB: 2563.5</t>
+  </si>
+  <si>
+    <t>PT: 2485.0</t>
+  </si>
+  <si>
+    <t>PT: 2564.0</t>
+  </si>
+  <si>
+    <t>DB: 5048.0</t>
+  </si>
+  <si>
+    <t>PT: 5049.0</t>
+  </si>
+  <si>
+    <t>OJS Unisex Bathrooms</t>
+  </si>
+  <si>
+    <t>DB: 97.0</t>
+  </si>
+  <si>
+    <t>DB: 96.5</t>
+  </si>
+  <si>
+    <t>PT: 97.0</t>
+  </si>
+  <si>
+    <t>DB: 193.5</t>
+  </si>
+  <si>
+    <t>PT: 194.0</t>
+  </si>
+  <si>
+    <t>CareFirst UCP 10th Floor</t>
+  </si>
+  <si>
+    <t>DB: 75.75</t>
+  </si>
+  <si>
+    <t>PT: 76.0</t>
+  </si>
+  <si>
+    <t>PT: 30.0</t>
+  </si>
+  <si>
+    <t>DB: 105.75</t>
+  </si>
+  <si>
+    <t>PT: 106.0</t>
+  </si>
+  <si>
+    <t>Anacostia MOF DC Streetcar</t>
+  </si>
+  <si>
+    <t>DB: 152.0</t>
+  </si>
+  <si>
+    <t>DB: 216.5</t>
+  </si>
+  <si>
+    <t>PT: 152.0</t>
+  </si>
+  <si>
+    <t>PT: 217.0</t>
+  </si>
+  <si>
+    <t>DB: 368.5</t>
+  </si>
+  <si>
+    <t>PT: 369.0</t>
+  </si>
+  <si>
+    <t>Payne Elementary School-Phase 1 Modernization</t>
+  </si>
+  <si>
+    <t>DB: 1794.5</t>
+  </si>
+  <si>
+    <t>DB: 1950.0</t>
+  </si>
+  <si>
+    <t>PT: 1795.0</t>
+  </si>
+  <si>
+    <t>PT: 1950.0</t>
+  </si>
+  <si>
+    <t>DB: 3744.5</t>
+  </si>
+  <si>
+    <t>PT: 3745.0</t>
+  </si>
+  <si>
+    <t>Gallaudet University Replace Boiler Systems President’s Residence</t>
+  </si>
+  <si>
+    <t>DB: 153.5</t>
+  </si>
+  <si>
+    <t>DB: 859.0</t>
+  </si>
+  <si>
+    <t>PT: 154.0</t>
+  </si>
+  <si>
+    <t>PT: 859.0</t>
+  </si>
+  <si>
+    <t>DB: 1012.5</t>
+  </si>
+  <si>
+    <t>PT: 1013.0</t>
+  </si>
+  <si>
+    <t>IMF 1919 Pennsylvania Second Floor</t>
+  </si>
+  <si>
+    <t>DB: 42.5</t>
+  </si>
+  <si>
+    <t>DB: 77.5</t>
+  </si>
+  <si>
+    <t>PT: 43.0</t>
+  </si>
+  <si>
+    <t>PT: 78.0</t>
+  </si>
+  <si>
+    <t>PT: 121.0</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>SAP14740.00</t>
+  </si>
+  <si>
+    <t>FCPS, Newington Forest ES</t>
+  </si>
+  <si>
+    <t>DB: 2609.0</t>
+  </si>
+  <si>
+    <t>DB: 3670.05</t>
+  </si>
+  <si>
+    <t>PT: 2609.0</t>
+  </si>
+  <si>
+    <t>PT: 3670.0</t>
+  </si>
+  <si>
+    <t>DB: 6279.05</t>
+  </si>
+  <si>
+    <t>PT: 6279.0</t>
+  </si>
+  <si>
+    <t>Saint Elizabeths Chapel</t>
+  </si>
+  <si>
+    <t>DB: 101.0</t>
+  </si>
+  <si>
+    <t>DB: 203.5</t>
+  </si>
+  <si>
+    <t>PT: 649.0</t>
+  </si>
+  <si>
+    <t>PT: 667.0</t>
+  </si>
+  <si>
+    <t>DB: 304.5</t>
+  </si>
+  <si>
+    <t>PT: 1316.0</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>SAP14015.14</t>
+  </si>
+  <si>
+    <t>IMF TGS Consolidation HQ2 8th Floor</t>
+  </si>
+  <si>
+    <t>DB: 223.75</t>
+  </si>
+  <si>
+    <t>DB: 131.5</t>
+  </si>
+  <si>
+    <t>PT: 224.0</t>
+  </si>
+  <si>
+    <t>PT: 132.0</t>
+  </si>
+  <si>
+    <t>DB: 355.25</t>
+  </si>
+  <si>
+    <t>PT: 356.0</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>SAIP14400.00</t>
+  </si>
+  <si>
+    <t>Girard Street-Senior Bldg.</t>
+  </si>
+  <si>
+    <t>DB: 1187.5</t>
+  </si>
+  <si>
+    <t>DB: 1347.5</t>
+  </si>
+  <si>
+    <t>PT: 1188.0</t>
+  </si>
+  <si>
+    <t>PT: 1348.0</t>
+  </si>
+  <si>
+    <t>DB: 2535.0</t>
+  </si>
+  <si>
+    <t>PT: 2536.0</t>
+  </si>
+  <si>
+    <t>DB: 11475.0</t>
+  </si>
+  <si>
+    <t>DB: 440.0</t>
+  </si>
+  <si>
+    <t>PT: 11475.0</t>
+  </si>
+  <si>
+    <t>PT: 440.0</t>
+  </si>
+  <si>
+    <t>DB: 11915.0</t>
+  </si>
+  <si>
+    <t>PT: 11915.0</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>DB: 74535.0</t>
+  </si>
+  <si>
+    <t>DB: 281985.0</t>
+  </si>
+  <si>
+    <t>PT: 74535.0</t>
+  </si>
+  <si>
+    <t>PT: 281985.0</t>
+  </si>
+  <si>
+    <t>DB: 356520.0</t>
+  </si>
+  <si>
+    <t>PT: 356520.0</t>
+  </si>
+  <si>
+    <t>DB: 2910.0</t>
+  </si>
+  <si>
+    <t>DB: 10615.0</t>
+  </si>
+  <si>
+    <t>PT: 2910.0</t>
+  </si>
+  <si>
+    <t>PT: 10615.0</t>
+  </si>
+  <si>
+    <t>DB: 13525.0</t>
+  </si>
+  <si>
+    <t>PT: 13525.0</t>
+  </si>
+  <si>
+    <t>DB: 2272.5</t>
+  </si>
+  <si>
+    <t>PT: 2273.0</t>
+  </si>
+  <si>
+    <t>PT: 3300.0</t>
+  </si>
+  <si>
+    <t>DB: 5572.5</t>
+  </si>
+  <si>
+    <t>PT: 5573.0</t>
+  </si>
+  <si>
+    <t>DB: 4560.0</t>
+  </si>
+  <si>
+    <t>DB: 23815.0</t>
+  </si>
+  <si>
+    <t>PT: 4560.0</t>
+  </si>
+  <si>
+    <t>PT: 23815.0</t>
+  </si>
+  <si>
+    <t>DB: 28375.0</t>
+  </si>
+  <si>
+    <t>PT: 28375.0</t>
+  </si>
+  <si>
+    <t>DB: 53835.0</t>
+  </si>
+  <si>
+    <t>DB: 214500.0</t>
+  </si>
+  <si>
+    <t>PT: 53835.0</t>
+  </si>
+  <si>
+    <t>PT: 214500.0</t>
+  </si>
+  <si>
+    <t>DB: 268335.0</t>
+  </si>
+  <si>
+    <t>PT: 268335.0</t>
+  </si>
+  <si>
+    <t>DB: 4605.0</t>
+  </si>
+  <si>
+    <t>DB: 94490.0</t>
+  </si>
+  <si>
+    <t>PT: 4605.0</t>
+  </si>
+  <si>
+    <t>PT: 94490.0</t>
+  </si>
+  <si>
+    <t>DB: 99095.0</t>
+  </si>
+  <si>
+    <t>PT: 99095.0</t>
+  </si>
+  <si>
+    <t>DB: 1275.0</t>
+  </si>
+  <si>
+    <t>DB: 8525.0</t>
+  </si>
+  <si>
+    <t>PT: 1275.0</t>
+  </si>
+  <si>
+    <t>PT: 8525.0</t>
+  </si>
+  <si>
+    <t>DB: 9800.0</t>
+  </si>
+  <si>
+    <t>PT: 9800.0</t>
+  </si>
+  <si>
+    <t>DB: 78270.0</t>
+  </si>
+  <si>
+    <t>DB: 403705.5</t>
+  </si>
+  <si>
+    <t>PT: 78270.0</t>
+  </si>
+  <si>
+    <t>PT: 403706.0</t>
+  </si>
+  <si>
+    <t>DB: 481975.5</t>
+  </si>
+  <si>
+    <t>PT: 481976.0</t>
+  </si>
+  <si>
+    <t>DB: 3030.0</t>
+  </si>
+  <si>
+    <t>DB: 22385.0</t>
+  </si>
+  <si>
+    <t>PT: 19470.0</t>
+  </si>
+  <si>
+    <t>PT: 73370.0</t>
+  </si>
+  <si>
+    <t>DB: 25415.0</t>
+  </si>
+  <si>
+    <t>PT: 92840.0</t>
+  </si>
+  <si>
+    <t>DB: 6712.5</t>
+  </si>
+  <si>
+    <t>DB: 14465.0</t>
+  </si>
+  <si>
+    <t>PT: 6713.0</t>
+  </si>
+  <si>
+    <t>PT: 14465.0</t>
+  </si>
+  <si>
+    <t>DB: 21177.5</t>
+  </si>
+  <si>
+    <t>PT: 21178.0</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>SAIP14377.02</t>
+  </si>
+  <si>
+    <t>KIPP DC NPCHS- Swing Space Permit Add Service</t>
+  </si>
+  <si>
+    <t>DB: 180.0</t>
+  </si>
+  <si>
+    <t>DB: 5665.0</t>
+  </si>
+  <si>
+    <t>PT: 180.0</t>
+  </si>
+  <si>
+    <t>PT: 5665.0</t>
+  </si>
+  <si>
+    <t>DB: 5845.0</t>
+  </si>
+  <si>
+    <t>PT: 5845.0</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>SAIP14356.05</t>
+  </si>
+  <si>
+    <t>Mann ES Add Svc-Cistern Design SCO</t>
+  </si>
+  <si>
+    <t>DB: 840.0</t>
+  </si>
+  <si>
+    <t>DB: 2585.0</t>
+  </si>
+  <si>
+    <t>PT: 840.0</t>
+  </si>
+  <si>
+    <t>PT: 2585.0</t>
+  </si>
+  <si>
+    <t>DB: 3425.0</t>
+  </si>
+  <si>
+    <t>PT: 3425.0</t>
+  </si>
+  <si>
+    <t>PT: SAPX186029.00  LGACC BECC Pre-SD Report Submission</t>
+  </si>
+  <si>
+    <t>Same Deadline</t>
+  </si>
+  <si>
+    <t>PT: SAPX176010.00 SUNY New Paltz Exterior Renovations Comment Response and Revised Drawings</t>
+  </si>
+  <si>
+    <t>PT: SIPX182063.00 Howard Center100% CD Submission - Drawings Only</t>
+  </si>
+  <si>
+    <t>PT: SAPX186037.00 Staten Island Aquatic Center Final Pre-SD report Due</t>
+  </si>
+  <si>
+    <t>PT: FW: SAPX178009.05  UVA Pinn Hall 4th FL Add</t>
+  </si>
+  <si>
+    <t>PT: RE: SAPX186037.00 Staten Island Aquatic Center Final Pre-SD report Due</t>
+  </si>
+  <si>
+    <t>PT: SAPX186031.00 Delhi Alumni Hall Pre-SD final submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT: SAIP16534.00 VCBR - 100% BCOM Resubmission </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1201,7 +2045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K26"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:K12"/>
@@ -1209,15 +2053,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="53.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1252,323 +2096,387 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>381</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>383</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>385</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>387</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>389</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>391</v>
       </c>
       <c r="K4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>395</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>397</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>399</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>401</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>402</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>403</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>405</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>408</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>411</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>413</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>414</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>415</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>416</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>417</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>419</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>420</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>421</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>422</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>424</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>425</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>426</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>428</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>429</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>430</v>
       </c>
       <c r="K10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>433</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>435</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>436</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>437</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>439</v>
       </c>
       <c r="K11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" t="s">
+        <v>443</v>
+      </c>
+      <c r="H12" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12" t="s">
+        <v>445</v>
+      </c>
+      <c r="J12" t="s">
+        <v>446</v>
+      </c>
+      <c r="K12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" t="s">
+    <row r="13">
+      <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" t="s">
+        <v>452</v>
+      </c>
+      <c r="H13" t="s">
+        <v>453</v>
+      </c>
+      <c r="I13" t="s">
+        <v>454</v>
+      </c>
+      <c r="J13" t="s">
+        <v>455</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" t="s">
+        <v>458</v>
+      </c>
+      <c r="E14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F14" t="s">
+        <v>460</v>
+      </c>
+      <c r="G14" t="s">
+        <v>461</v>
+      </c>
+      <c r="H14" t="s">
+        <v>462</v>
+      </c>
+      <c r="I14" t="s">
+        <v>463</v>
+      </c>
+      <c r="J14" t="s">
+        <v>464</v>
+      </c>
+      <c r="K14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1591,7 +2499,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0C29CB-B0D0-4149-87E7-D4B7D6DB0B95}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD12"/>
@@ -1599,16 +2507,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1643,324 +2551,388 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>470</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>385</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>472</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>476</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>477</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>478</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>482</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>483</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>484</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>487</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>489</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>493</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>494</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>495</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>499</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>500</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>501</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>502</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>504</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>505</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>506</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>425</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>507</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>508</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>509</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>510</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>511</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>512</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>433</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>514</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>515</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>516</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>517</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>518</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>519</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>520</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>521</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>522</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>523</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>524</v>
       </c>
       <c r="K12" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" t="s">
+        <v>525</v>
+      </c>
+      <c r="F13" t="s">
+        <v>526</v>
+      </c>
+      <c r="G13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H13" t="s">
+        <v>528</v>
+      </c>
+      <c r="I13" t="s">
+        <v>529</v>
+      </c>
+      <c r="J13" t="s">
+        <v>530</v>
+      </c>
+      <c r="K13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D14" t="s">
+        <v>542</v>
+      </c>
+      <c r="E14" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G14" t="s">
+        <v>545</v>
+      </c>
+      <c r="H14" t="s">
+        <v>546</v>
+      </c>
+      <c r="I14" t="s">
+        <v>547</v>
+      </c>
+      <c r="J14" t="s">
+        <v>548</v>
+      </c>
+      <c r="K14" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -1978,12 +2950,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -2006,15 +2978,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>117</v>
       </c>
       <c r="C3" t="s">
         <v>118</v>
       </c>
-      <c r="D3">
-        <v>100</v>
+      <c r="D3" t="n">
+        <v>100.0</v>
       </c>
       <c r="E3" t="s">
         <v>119</v>
@@ -2026,15 +2998,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>123</v>
       </c>
-      <c r="D4">
-        <v>110</v>
+      <c r="D4" t="n">
+        <v>110.0</v>
       </c>
       <c r="E4" t="s">
         <v>124</v>
@@ -2046,15 +3018,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>127</v>
       </c>
-      <c r="D5">
-        <v>99</v>
+      <c r="D5" t="n">
+        <v>99.0</v>
       </c>
       <c r="E5" t="s">
         <v>128</v>
@@ -2066,15 +3038,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>130</v>
       </c>
-      <c r="D6">
-        <v>100</v>
+      <c r="D6" t="n">
+        <v>100.0</v>
       </c>
       <c r="E6" t="s">
         <v>119</v>
@@ -2086,15 +3058,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>132</v>
       </c>
-      <c r="D7">
-        <v>100</v>
+      <c r="D7" t="n">
+        <v>100.0</v>
       </c>
       <c r="E7" t="s">
         <v>119</v>
@@ -2106,15 +3078,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>134</v>
       </c>
-      <c r="D8">
-        <v>100</v>
+      <c r="D8" t="n">
+        <v>100.0</v>
       </c>
       <c r="E8" t="s">
         <v>119</v>
@@ -2126,15 +3098,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" t="s">
         <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>136</v>
       </c>
-      <c r="D9">
-        <v>115</v>
+      <c r="D9" t="n">
+        <v>115.0</v>
       </c>
       <c r="E9" t="s">
         <v>137</v>
@@ -2146,15 +3118,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>140</v>
       </c>
-      <c r="D10">
-        <v>100</v>
+      <c r="D10" t="n">
+        <v>100.0</v>
       </c>
       <c r="E10" t="s">
         <v>119</v>
@@ -2166,15 +3138,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>142</v>
       </c>
-      <c r="D11">
-        <v>115</v>
+      <c r="D11" t="n">
+        <v>115.0</v>
       </c>
       <c r="E11" t="s">
         <v>137</v>
@@ -2186,15 +3158,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>143</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12">
-        <v>110</v>
+      <c r="D12" t="n">
+        <v>110.0</v>
       </c>
       <c r="E12" t="s">
         <v>124</v>
@@ -2221,11 +3193,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -2245,7 +3217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>117</v>
       </c>
@@ -2262,7 +3234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>122</v>
       </c>
@@ -2279,7 +3251,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -2296,7 +3268,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>129</v>
       </c>
@@ -2313,7 +3285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -2330,7 +3302,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -2347,7 +3319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -2364,7 +3336,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>139</v>
       </c>
@@ -2381,7 +3353,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>141</v>
       </c>
@@ -2398,7 +3370,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>143</v>
       </c>
@@ -2422,7 +3394,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8996CF-1BC0-4842-B3DC-A6F8C23013DE}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD12"/>
@@ -2430,16 +3402,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -2471,7 +3443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>166</v>
       </c>
@@ -2500,7 +3472,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>175</v>
       </c>
@@ -2529,7 +3501,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>179</v>
       </c>
@@ -2558,7 +3530,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>183</v>
       </c>
@@ -2587,7 +3559,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>185</v>
       </c>
@@ -2616,7 +3588,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>189</v>
       </c>
@@ -2645,7 +3617,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" t="s">
         <v>193</v>
       </c>
@@ -2674,7 +3646,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>197</v>
       </c>
@@ -2703,7 +3675,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>201</v>
       </c>
@@ -2732,7 +3704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>205</v>
       </c>
@@ -2776,10 +3748,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="91.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="91.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -2805,7 +3777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>211</v>
       </c>
@@ -2822,13 +3794,13 @@
         <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>549</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
         <v>215</v>
       </c>
@@ -2845,13 +3817,13 @@
         <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>551</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" t="s">
         <v>219</v>
       </c>
@@ -2868,13 +3840,13 @@
         <v>223</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>552</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" t="s">
         <v>224</v>
       </c>
@@ -2891,13 +3863,13 @@
         <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>553</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" t="s">
         <v>228</v>
       </c>
@@ -2914,13 +3886,13 @@
         <v>232</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>554</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" t="s">
         <v>224</v>
       </c>
@@ -2937,13 +3909,13 @@
         <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>555</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" t="s">
         <v>236</v>
       </c>
@@ -2960,13 +3932,13 @@
         <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>556</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" t="s">
         <v>236</v>
       </c>
@@ -2983,13 +3955,13 @@
         <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>556</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" t="s">
         <v>236</v>
       </c>
@@ -3006,13 +3978,13 @@
         <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>556</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="B12" t="s">
         <v>242</v>
       </c>
@@ -3029,10 +4001,10 @@
         <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>557</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -3050,11 +4022,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -3074,7 +4046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>246</v>
       </c>
@@ -3091,7 +4063,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>251</v>
       </c>
@@ -3108,7 +4080,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>251</v>
       </c>
@@ -3125,7 +4097,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>251</v>
       </c>
@@ -3142,7 +4114,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>259</v>
       </c>
@@ -3159,7 +4131,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>259</v>
       </c>
@@ -3176,7 +4148,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" t="s">
         <v>265</v>
       </c>
@@ -3193,7 +4165,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>265</v>
       </c>
@@ -3210,7 +4182,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>265</v>
       </c>
@@ -3227,7 +4199,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>265</v>
       </c>
@@ -3251,7 +4223,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369B7AA7-175E-46F0-8E40-9038AAB05C30}">
-  <dimension ref="B2:E2"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD12"/>
@@ -3259,8 +4231,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -3275,6 +4247,146 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3284,7 +4396,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA677737-0164-40BF-8F57-4D9CC0056D8D}">
-  <dimension ref="B2:E2"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD12"/>
@@ -3292,10 +4404,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -3312,6 +4424,146 @@
         <v>276</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
